--- a/biology/Botanique/Pomme_de_terre_de_Noirmoutier/Pomme_de_terre_de_Noirmoutier.xlsx
+++ b/biology/Botanique/Pomme_de_terre_de_Noirmoutier/Pomme_de_terre_de_Noirmoutier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La pomme de terre de Noirmoutier est une indication géographique protégée (IGP) qui s'applique à une production de pommes de terre primeurs cultivée dans l'île de Noirmoutier (France).
-L'appellation « Pomme de terre de Noirmoutier » a été inscrite dans la liste des indications géographiques protégées de l'Union européenne en vertu du règlement d'exécution n° 2020/908 de la Commission du 24 juin 2020[1]. Un cahier des charges fixe les caractéristiques du produit et les conditions applicables à la production, la récolte et la commercialisation, les variétés autorisées et l'aire géographique. Parmi les variétés autorisées figurent notamment la ‘Sirtema’ et la ‘Bonnotte’[2].
-Cette appellation concerne 25 producteurs qui cultivent 450 hectares et produisent 1 100 tonnes de pommes de terre par an[3].
-L'aire géographique de l'appellation comprend quatre communes de l'île de Noirmoutier : Noirmoutier-en-l'Île, L'Épine, La Guérinière et Barbâtre[4]. 
+L'appellation « Pomme de terre de Noirmoutier » a été inscrite dans la liste des indications géographiques protégées de l'Union européenne en vertu du règlement d'exécution n° 2020/908 de la Commission du 24 juin 2020. Un cahier des charges fixe les caractéristiques du produit et les conditions applicables à la production, la récolte et la commercialisation, les variétés autorisées et l'aire géographique. Parmi les variétés autorisées figurent notamment la ‘Sirtema’ et la ‘Bonnotte’.
+Cette appellation concerne 25 producteurs qui cultivent 450 hectares et produisent 1 100 tonnes de pommes de terre par an.
+L'aire géographique de l'appellation comprend quatre communes de l'île de Noirmoutier : Noirmoutier-en-l'Île, L'Épine, La Guérinière et Barbâtre. 
 </t>
         </is>
       </c>
